--- a/sss.xlsx
+++ b/sss.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>c</t>
   </si>
   <si>
-    <t>zzz</t>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,6 +73,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
